--- a/shared/ojb-resources-common/src/main/resources/service-specifications/Behavioral_Health_Evalutation_Reporting_Service/artifacts/service_model/information_model/BehavioralHealthEvaluationRecord_IEPD/documentation/BehaviorHealthReportMapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/service-specifications/Behavioral_Health_Evalutation_Reporting_Service/artifacts/service_model/information_model/BehavioralHealthEvaluationRecord_IEPD/documentation/BehaviorHealthReportMapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="2660" windowWidth="28800" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-28120" yWindow="6400" windowWidth="28800" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Behavioral Health Reporting" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
   <si>
     <t>Race</t>
   </si>
@@ -412,9 +412,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="688">
+  <cellStyleXfs count="698">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1194,12 +1204,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1209,8 +1213,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="688">
+  <cellStyles count="698">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1554,6 +1564,11 @@
     <cellStyle name="Followed Hyperlink" xfId="683" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="685" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="695" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="697" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1897,6 +1912,11 @@
     <cellStyle name="Hyperlink" xfId="682" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="684" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="686" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="688" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="690" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="692" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="694" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="696" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2235,8 +2255,8 @@
   <dimension ref="A1:XFA350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2253,10 +2273,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16381">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -2379,50 +2399,50 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:16381">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:16381">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:16381">
       <c r="A9" s="3" t="s">
@@ -35427,7 +35447,9 @@
       <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:12" s="19" customFormat="1">
-      <c r="A21" s="7"/>
+      <c r="A21" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="B21" s="7" t="s">
         <v>60</v>
       </c>
@@ -35445,7 +35467,9 @@
       <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:12" s="19" customFormat="1">
-      <c r="A22" s="7"/>
+      <c r="A22" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="B22" s="7" t="s">
         <v>61</v>
       </c>
@@ -35463,7 +35487,9 @@
       <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:12" s="19" customFormat="1">
-      <c r="A23" s="7"/>
+      <c r="A23" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="B23" s="7" t="s">
         <v>62</v>
       </c>
@@ -35483,7 +35509,9 @@
       <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:12" s="19" customFormat="1">
-      <c r="A24" s="7"/>
+      <c r="A24" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="B24" s="7" t="s">
         <v>64</v>
       </c>
@@ -35523,20 +35551,18 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="1:12" ht="28">
-      <c r="A27" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
         <v>37</v>
       </c>
@@ -35544,9 +35570,9 @@
         <v>75</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33" t="s">
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="13"/>
@@ -35559,9 +35585,7 @@
       <c r="K27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="28">
-      <c r="A28" s="26" t="s">
-        <v>26</v>
-      </c>
+      <c r="A28" s="26"/>
       <c r="B28" s="26" t="s">
         <v>76</v>
       </c>
@@ -35569,9 +35593,9 @@
         <v>77</v>
       </c>
       <c r="D28" s="26"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34" t="s">
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="27"/>
@@ -35594,9 +35618,9 @@
         <v>39</v>
       </c>
       <c r="D29" s="12"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33" t="s">
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="12" t="s">
@@ -35611,9 +35635,7 @@
       <c r="K29" s="17"/>
     </row>
     <row r="30" spans="1:12" ht="70">
-      <c r="A30" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="A30" s="12"/>
       <c r="B30" s="13" t="s">
         <v>40</v>
       </c>
@@ -35621,9 +35643,9 @@
         <v>41</v>
       </c>
       <c r="D30" s="12"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33" t="s">
+      <c r="E30" s="33"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="17" t="s">
@@ -35638,7 +35660,9 @@
       <c r="K30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="28">
-      <c r="A31" s="26"/>
+      <c r="A31" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="B31" s="27" t="s">
         <v>70</v>
       </c>
@@ -35661,7 +35685,9 @@
       <c r="K31" s="28"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="26"/>
+      <c r="A32" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="B32" s="27" t="s">
         <v>71</v>
       </c>
